--- a/gameconf/rpg/skill.xlsx
+++ b/gameconf/rpg/skill.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="skilltab" sheetId="2" r:id="rId1"/>
-    <sheet name="生成表" sheetId="3" r:id="rId2"/>
+    <sheet name="Effects" sheetId="6" r:id="rId2"/>
+    <sheet name="骰子元素" sheetId="7" r:id="rId3"/>
+    <sheet name="生成表" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -57,10 +59,13 @@
     <t>TargetType</t>
   </si>
   <si>
-    <t>BuffEffects</t>
-  </si>
-  <si>
-    <t>DebuffEffects</t>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>DiceList</t>
   </si>
   <si>
     <t>MaxLevel</t>
@@ -84,6 +89,12 @@
     <t>int32</t>
   </si>
   <si>
+    <t>[]Effects</t>
+  </si>
+  <si>
+    <t>[]Dice</t>
+  </si>
+  <si>
     <t>唯一ID</t>
   </si>
   <si>
@@ -111,10 +122,13 @@
     <t>指向类型</t>
   </si>
   <si>
-    <t>施加的Buff效果名(效果名称)</t>
-  </si>
-  <si>
-    <t>施加的Debuff效果名(效果名称)</t>
+    <t>施加的Buff</t>
+  </si>
+  <si>
+    <t>施加的Debuff</t>
+  </si>
+  <si>
+    <t>骰子</t>
   </si>
   <si>
     <t>最大等级</t>
@@ -123,7 +137,7 @@
     <t>当前等级</t>
   </si>
   <si>
-    <t>小试牛刀</t>
+    <t>附骨之疽</t>
   </si>
   <si>
     <t>攻击选中目标</t>
@@ -135,7 +149,49 @@
     <t>指向类型-选中敌人</t>
   </si>
   <si>
+    <t>1:5|2:5</t>
+  </si>
+  <si>
+    <t>骰子-任意:1:媒介-必选</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Incr</t>
+  </si>
+  <si>
+    <t>状态id</t>
+  </si>
+  <si>
+    <t>叠加层数</t>
+  </si>
+  <si>
+    <t>DiceType</t>
+  </si>
+  <si>
+    <t>DiceCount</t>
+  </si>
+  <si>
+    <t>DiceRule</t>
+  </si>
+  <si>
+    <t>骰子类型</t>
+  </si>
+  <si>
+    <t>骰子个数</t>
+  </si>
+  <si>
+    <t>需求条件</t>
+  </si>
+  <si>
     <t>@config:skill_cfg|skilltab:SkillConfig|map:ID</t>
+  </si>
+  <si>
+    <t>@struct:skill_cfg|Effects:Effects</t>
+  </si>
+  <si>
+    <t>@struct:skill_cfg|骰子元素:Dice</t>
   </si>
 </sst>
 </file>
@@ -778,14 +834,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,184 +1158,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.825" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.825" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="6" width="17.6916666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.6916666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="21.125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="12" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="14.25" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="14.25" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>9000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1289,20 +1365,130 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="92.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/gameconf/rpg/skill.xlsx
+++ b/gameconf/rpg/skill.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,9 @@
     <t>骰子-任意:1:媒介-必选</t>
   </si>
   <si>
+    <t>普攻</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -185,7 +188,7 @@
     <t>需求条件</t>
   </si>
   <si>
-    <t>@config:skill_cfg|skilltab:SkillConfig|map:ID</t>
+    <t>@config:skill_cfg|skilltab:Skill|map:ID</t>
   </si>
   <si>
     <t>@struct:skill_cfg|Effects:Effects</t>
@@ -1158,13 +1161,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11.825" style="2" customWidth="1"/>
@@ -1354,6 +1357,35 @@
       </c>
       <c r="N4" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1411,10 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
@@ -1395,10 +1427,10 @@
     </row>
     <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1425,35 +1457,35 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1500,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1478,17 +1510,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/gameconf/rpg/skill.xlsx
+++ b/gameconf/rpg/skill.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F11" sqref="K4 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D39" sqref="C8 D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/gameconf/rpg/skill.xlsx
+++ b/gameconf/rpg/skill.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="K4 F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <v>9000</v>
